--- a/Assets/_ExcelData/ItemData.xlsx
+++ b/Assets/_ExcelData/ItemData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F903DE32-DF44-4C18-A9E1-BDC859FD4D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E770C77-B3BD-4870-BCF0-C3486CDD642E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="4440" windowWidth="28800" windowHeight="12645" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
+    <workbookView xWindow="6330" yWindow="6075" windowWidth="28800" windowHeight="12645" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,7 +486,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -497,10 +497,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -511,10 +511,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -522,10 +522,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>

--- a/Assets/_ExcelData/ItemData.xlsx
+++ b/Assets/_ExcelData/ItemData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E770C77-B3BD-4870-BCF0-C3486CDD642E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D42229-63DB-4BE1-A769-70D2931CED46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="6075" windowWidth="28800" windowHeight="12645" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -79,6 +79,46 @@
   </si>
   <si>
     <t>마을</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨강 꽃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나뭇잎 가면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란잠자리 날개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등하초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFE525</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -483,15 +523,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9CBF0E-8926-4897-ADFC-E7D5CCA22D88}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="1" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -519,6 +559,9 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -532,6 +575,62 @@
       </c>
       <c r="D3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_ExcelData/ItemData.xlsx
+++ b/Assets/_ExcelData/ItemData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D42229-63DB-4BE1-A769-70D2931CED46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56893A0A-FAB0-41F8-BF5A-0D3DCDAAB514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
@@ -36,89 +36,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>물컹물컹한 액체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropMonsterID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파랑 꽃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM001,MM002,MM003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Field</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마을</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨강 꽃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나뭇잎 가면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파란잠자리 날개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등하초</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFE525</t>
+    <t>버려진 탄약 상자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropMonster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서쪽 D1 구역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항생제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비상약품상자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방독면 필터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -523,114 +475,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9CBF0E-8926-4897-ADFC-E7D5CCA22D88}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_ExcelData/ItemData.xlsx
+++ b/Assets/_ExcelData/ItemData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56893A0A-FAB0-41F8-BF5A-0D3DCDAAB514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412F13C9-1A8D-4F30-ABDC-7824B82945E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
+    <workbookView xWindow="38400" yWindow="2940" windowWidth="28800" windowHeight="12645" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>방독면 필터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구일지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -475,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9CBF0E-8926-4897-ADFC-E7D5CCA22D88}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -543,6 +547,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_ExcelData/ItemData.xlsx
+++ b/Assets/_ExcelData/ItemData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412F13C9-1A8D-4F30-ABDC-7824B82945E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441AB8F9-E856-472C-9542-41738E2581A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2940" windowWidth="28800" windowHeight="12645" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -75,6 +75,14 @@
   </si>
   <si>
     <t>연구일지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가족사진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동쪽 D1 구역</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9CBF0E-8926-4897-ADFC-E7D5CCA22D88}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -558,6 +566,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_ExcelData/ItemData.xlsx
+++ b/Assets/_ExcelData/ItemData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441AB8F9-E856-472C-9542-41738E2581A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D8583E-5165-4C51-A5D8-0BECD2EEAA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>동쪽 D1 구역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호해독기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰인형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결혼반지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9CBF0E-8926-4897-ADFC-E7D5CCA22D88}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -577,6 +589,39 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_ExcelData/ItemData.xlsx
+++ b/Assets/_ExcelData/ItemData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D8583E-5165-4C51-A5D8-0BECD2EEAA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B226F421-2DBB-4253-9DF6-4AC05A9E485B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
+    <workbookView xWindow="1560" yWindow="6495" windowWidth="28800" windowHeight="12645" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,6 +95,14 @@
   </si>
   <si>
     <t>결혼반지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV파일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭탄</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -499,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9CBF0E-8926-4897-ADFC-E7D5CCA22D88}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -622,6 +630,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_ExcelData/ItemData.xlsx
+++ b/Assets/_ExcelData/ItemData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(R&amp;D)ChatAPI_QuestGenerator\Assets\_ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B226F421-2DBB-4253-9DF6-4AC05A9E485B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCD274B-0139-4ECB-9271-ABE9D252583B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="6495" windowWidth="28800" windowHeight="12645" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
+    <workbookView minimized="1" xWindow="39435" yWindow="3975" windowWidth="28800" windowHeight="12645" xr2:uid="{FABA762E-1D3F-45C2-A656-0C79C23C5F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DropInfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>항생제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -103,6 +99,10 @@
   </si>
   <si>
     <t>폭탄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -510,7 +510,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -544,7 +544,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -588,29 +588,29 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -621,35 +621,35 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
